--- a/FASE 2/PRUEBAS/Resultado de pruebas/Casos de Prueba - Resumen.xlsx
+++ b/FASE 2/PRUEBAS/Resultado de pruebas/Casos de Prueba - Resumen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815" tabRatio="797"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815" tabRatio="797" firstSheet="11" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Inicio" sheetId="25" r:id="rId1"/>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2397" uniqueCount="1169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2397" uniqueCount="1170">
   <si>
     <t>Se colocó 0 a los tres valores</t>
   </si>
@@ -29789,7 +29789,10 @@
     <t>Se observa que se repite el ID de registro de Entidad, cual es el motivo si son muestras diferentes?</t>
   </si>
   <si>
-    <t>Evaluación</t>
+    <t>Control de cambios - Resuelto en generación código  de muestra</t>
+  </si>
+  <si>
+    <t>Por ejemplo: se eliminó una muestra con ID 123, inmediatamente despues se crea una muestra, que adquiere el ID 123. Finalmente, se elimina la muestra con ID 123. Resultado: aparecen 2 registros de eliminación con el mismo ID: 123</t>
   </si>
 </sst>
 </file>
@@ -30351,6 +30354,9 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -30386,9 +30392,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -36556,7 +36559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -36579,110 +36582,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="104" t="s">
         <v>1069</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="105" t="s">
         <v>956</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="106"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="107"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="55" t="s">
         <v>957</v>
       </c>
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="102" t="s">
         <v>958</v>
       </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="103"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="56" t="s">
         <v>957</v>
       </c>
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="102" t="s">
         <v>959</v>
       </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="101"/>
-      <c r="P4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="102"/>
+      <c r="N4" s="102"/>
+      <c r="O4" s="102"/>
+      <c r="P4" s="103"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="57" t="s">
         <v>957</v>
       </c>
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="102" t="s">
         <v>960</v>
       </c>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101"/>
-      <c r="I5" s="101"/>
-      <c r="J5" s="101"/>
-      <c r="K5" s="101"/>
-      <c r="L5" s="101"/>
-      <c r="M5" s="101"/>
-      <c r="N5" s="101"/>
-      <c r="O5" s="101"/>
-      <c r="P5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="102"/>
+      <c r="O5" s="102"/>
+      <c r="P5" s="103"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="67" t="s">
@@ -37643,7 +37646,7 @@
       <c r="D11" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="E11" s="113" t="s">
+      <c r="E11" s="101" t="s">
         <v>1139</v>
       </c>
       <c r="F11" s="4" t="s">
@@ -37853,7 +37856,7 @@
       <c r="D20" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="E20" s="113" t="s">
+      <c r="E20" s="101" t="s">
         <v>1141</v>
       </c>
       <c r="F20" s="4" t="s">
@@ -38450,8 +38453,8 @@
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -38463,6 +38466,7 @@
     <col min="5" max="5" width="27.7109375" customWidth="1"/>
     <col min="6" max="6" width="30.85546875" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1">
@@ -38627,7 +38631,7 @@
         <v>1140</v>
       </c>
       <c r="H7" s="84" t="s">
-        <v>1135</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="75">
@@ -38653,7 +38657,7 @@
         <v>1140</v>
       </c>
       <c r="H8" s="84" t="s">
-        <v>1135</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="165">
@@ -38679,7 +38683,7 @@
         <v>1140</v>
       </c>
       <c r="H9" s="84" t="s">
-        <v>1135</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="135">
@@ -38746,8 +38750,8 @@
       <c r="G12" s="92" t="s">
         <v>1140</v>
       </c>
-      <c r="H12" s="84" t="s">
-        <v>1135</v>
+      <c r="H12" s="98" t="s">
+        <v>1168</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="95.25" customHeight="1">
@@ -38768,11 +38772,11 @@
       <c r="G13" s="92" t="s">
         <v>1140</v>
       </c>
-      <c r="H13" s="84" t="s">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="95.25" customHeight="1">
+      <c r="H13" s="98" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="197.25" customHeight="1">
       <c r="A14" s="88">
         <v>13</v>
       </c>
@@ -38790,14 +38794,15 @@
       <c r="G14" s="92" t="s">
         <v>1140</v>
       </c>
-      <c r="H14" s="84" t="s">
-        <v>1135</v>
+      <c r="H14" s="98" t="s">
+        <v>1169</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -38808,8 +38813,8 @@
   </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView topLeftCell="C9" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -39502,15 +39507,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="111" t="s">
         <v>952</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="90" t="s">
@@ -40866,15 +40871,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="111" t="s">
         <v>954</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="90" t="s">
@@ -41885,26 +41890,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="110" t="s">
         <v>399</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="111" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="15" t="s">
@@ -43566,15 +43571,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="113" t="s">
         <v>1024</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" customHeight="1">
       <c r="A2" s="1"/>
@@ -43756,15 +43761,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="113" t="s">
         <v>1035</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" customHeight="1">
       <c r="A2" s="1"/>
@@ -43884,26 +43889,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="109" t="s">
         <v>926</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="108" t="s">
         <v>927</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
       <c r="A3" s="16"/>
@@ -44578,15 +44583,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="113" t="s">
         <v>1041</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="64" t="s">
@@ -44823,15 +44828,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="113" t="s">
         <v>1068</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" customHeight="1">
       <c r="A2" s="1"/>
@@ -44930,48 +44935,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="110" t="s">
         <v>937</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="110" t="s">
         <v>938</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="111" t="s">
         <v>939</v>
       </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="111" t="s">
         <v>940</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="53" t="s">
@@ -45870,15 +45875,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="112" t="s">
         <v>924</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="53" t="s">
@@ -46404,15 +46409,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="111" t="s">
         <v>986</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
@@ -46743,15 +46748,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="113" t="s">
         <v>987</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" customHeight="1">
       <c r="A2" s="1"/>
@@ -48070,7 +48075,7 @@
       <c r="D13" s="25" t="s">
         <v>269</v>
       </c>
-      <c r="E13" s="113" t="s">
+      <c r="E13" s="101" t="s">
         <v>1136</v>
       </c>
       <c r="F13" s="4" t="s">

--- a/FASE 2/PRUEBAS/Resultado de pruebas/Casos de Prueba - Resumen.xlsx
+++ b/FASE 2/PRUEBAS/Resultado de pruebas/Casos de Prueba - Resumen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815" tabRatio="797" firstSheet="11" activeTab="13"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815" tabRatio="797" firstSheet="25" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet name="Inicio" sheetId="25" r:id="rId1"/>
@@ -38453,7 +38453,7 @@
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -40855,8 +40855,8 @@
   </sheetPr>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -43358,7 +43358,7 @@
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -43442,7 +43442,7 @@
         <v>1140</v>
       </c>
       <c r="H3" s="89" t="s">
-        <v>1116</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="135">
@@ -43468,7 +43468,7 @@
         <v>1140</v>
       </c>
       <c r="H4" s="89" t="s">
-        <v>1116</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="120">

--- a/FASE 2/PRUEBAS/Resultado de pruebas/Casos de Prueba - Resumen.xlsx
+++ b/FASE 2/PRUEBAS/Resultado de pruebas/Casos de Prueba - Resumen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815" tabRatio="797" firstSheet="25" activeTab="26"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815" tabRatio="797" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Inicio" sheetId="25" r:id="rId1"/>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2397" uniqueCount="1170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2397" uniqueCount="1169">
   <si>
     <t>Se colocó 0 a los tres valores</t>
   </si>
@@ -29394,9 +29394,6 @@
   </si>
   <si>
     <t>En el BBP página 143 dice: Para los tipos de ensayo que sólo tienen configurado una unidad de muestra no se les permitirá registrar requisitos ni parámetros de control por unidad de muestra, pero sí se les podrá registrar dicha información por promedio. El caso de prueba se realizó antes de hacer esa validación, por ello se muestra el valor en unidad de muestra. Por favor volver a probar ya se corrigió</t>
-  </si>
-  <si>
-    <t>En proceso</t>
   </si>
   <si>
     <t>No hay acceso a prefabricados</t>
@@ -37555,7 +37552,7 @@
         <v>891</v>
       </c>
       <c r="E7" s="78" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>576</v>
@@ -37647,7 +37644,7 @@
         <v>586</v>
       </c>
       <c r="E11" s="101" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>587</v>
@@ -37857,7 +37854,7 @@
         <v>612</v>
       </c>
       <c r="E20" s="101" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>936</v>
@@ -37871,7 +37868,7 @@
     </row>
     <row r="21" spans="1:8" ht="195">
       <c r="H21" s="100" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
   </sheetData>
@@ -38449,12 +38446,12 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FFFF0000"/>
+    <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="E14" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -38550,16 +38547,16 @@
         <v>634</v>
       </c>
       <c r="E4" s="77" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>635</v>
       </c>
       <c r="G4" s="92" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H4" s="84" t="s">
-        <v>1135</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="105">
@@ -38622,13 +38619,13 @@
         <v>642</v>
       </c>
       <c r="E7" s="77" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>643</v>
       </c>
       <c r="G7" s="92" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H7" s="84" t="s">
         <v>1116</v>
@@ -38648,13 +38645,13 @@
         <v>645</v>
       </c>
       <c r="E8" s="77" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>646</v>
       </c>
       <c r="G8" s="92" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H8" s="84" t="s">
         <v>1116</v>
@@ -38674,13 +38671,13 @@
         <v>648</v>
       </c>
       <c r="E9" s="77" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>649</v>
       </c>
       <c r="G9" s="92" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H9" s="84" t="s">
         <v>1116</v>
@@ -38740,18 +38737,18 @@
         <v>626</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>1164</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>1165</v>
       </c>
       <c r="E12" s="21"/>
       <c r="F12" s="9"/>
       <c r="G12" s="92" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H12" s="98" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="95.25" customHeight="1">
@@ -38762,15 +38759,15 @@
         <v>626</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="E13" s="21"/>
       <c r="F13" s="9"/>
       <c r="G13" s="92" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H13" s="98" t="s">
         <v>1112</v>
@@ -38784,18 +38781,18 @@
         <v>626</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="E14" s="21"/>
       <c r="F14" s="9"/>
       <c r="G14" s="92" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H14" s="98" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
   </sheetData>
@@ -39234,7 +39231,7 @@
         <v>327</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>328</v>
@@ -39260,7 +39257,7 @@
         <v>330</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>331</v>
@@ -39286,7 +39283,7 @@
         <v>333</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>334</v>
@@ -39919,12 +39916,12 @@
     </row>
     <row r="20" spans="1:7">
       <c r="F20" s="95" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="F21" s="95" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
   </sheetData>
@@ -40589,7 +40586,7 @@
         <v>469</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -40602,7 +40599,7 @@
     </row>
     <row r="15" spans="1:8" ht="240">
       <c r="H15" s="100" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
   </sheetData>
@@ -40855,8 +40852,8 @@
   </sheetPr>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -40927,7 +40924,7 @@
         <v>805</v>
       </c>
       <c r="E4" s="78" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>806</v>
@@ -41074,7 +41071,7 @@
         <v>823</v>
       </c>
       <c r="G10" s="96" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="H10" s="98" t="s">
         <v>1116</v>
@@ -41169,7 +41166,7 @@
         <v>853</v>
       </c>
       <c r="G14" s="96" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="H14" s="98" t="s">
         <v>1116</v>
@@ -41189,13 +41186,13 @@
         <v>855</v>
       </c>
       <c r="E15" s="78" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>856</v>
       </c>
       <c r="G15" s="78" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="H15" s="98" t="s">
         <v>1116</v>
@@ -41215,7 +41212,7 @@
         <v>860</v>
       </c>
       <c r="E16" s="78" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>861</v>
@@ -41239,13 +41236,13 @@
         <v>866</v>
       </c>
       <c r="E17" s="78" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>867</v>
       </c>
       <c r="G17" s="80" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H17" s="99" t="s">
         <v>1116</v>
@@ -41288,7 +41285,7 @@
         <v>870</v>
       </c>
       <c r="E19" s="77" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>864</v>
@@ -41311,16 +41308,16 @@
         <v>865</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="E20" s="77" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>871</v>
       </c>
       <c r="G20" s="77" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H20" s="99" t="s">
         <v>1116</v>
@@ -41340,7 +41337,7 @@
         <v>873</v>
       </c>
       <c r="E21" s="94" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="F21" s="14" t="s">
         <v>874</v>
@@ -43358,8 +43355,8 @@
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -43433,16 +43430,16 @@
         <v>1011</v>
       </c>
       <c r="E3" s="78" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>1012</v>
       </c>
       <c r="G3" s="77" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H3" s="89" t="s">
-        <v>1135</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="135">
@@ -43459,16 +43456,16 @@
         <v>1014</v>
       </c>
       <c r="E4" s="78" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>1015</v>
       </c>
       <c r="G4" s="77" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H4" s="89" t="s">
-        <v>1135</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="120">
@@ -44918,8 +44915,8 @@
   </sheetPr>
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView topLeftCell="C22" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -46731,8 +46728,8 @@
   </sheetPr>
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView topLeftCell="C40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -48076,7 +48073,7 @@
         <v>269</v>
       </c>
       <c r="E13" s="101" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>270</v>
@@ -48085,7 +48082,7 @@
         <v>1111</v>
       </c>
       <c r="H13" s="89" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="5" customFormat="1" ht="60">

--- a/FASE 2/PRUEBAS/Resultado de pruebas/Casos de Prueba - Resumen.xlsx
+++ b/FASE 2/PRUEBAS/Resultado de pruebas/Casos de Prueba - Resumen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815" tabRatio="797" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815" tabRatio="797" firstSheet="11" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Inicio" sheetId="25" r:id="rId1"/>
@@ -9878,253 +9878,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Entré a la opción </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Reporte Específico Control Diario</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Seleccioné los siguientes datos:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Empresa:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> CPSAA. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Planta:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Cementos Pacasmayo. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Proceso:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Molienda de Cemento Compósito. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Fecha:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 2011-06-04. Pulsé sobre el tipo de Ensayo Fraguado Inicial. Hora de la Muestra: 07:00. Valor del ensayo: 155. Pulsé en </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Reemplazar. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Cambie el valor por: 150.
-Ingresé a la opción </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Administrar Información de Auditoría</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Seleccioné </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Entidad:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> UnidadMuestra. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Acción:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Reemplazo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Fecha inicio:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 04-04-2012.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Fecha fin</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 04-04-2012. Pulso sobre el botón </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Buscar.</t>
-    </r>
-  </si>
-  <si>
     <t>Aparece información de la entidad reemplazada. Los siguiente datos:
 Usuario(E.Pacheco), fecha (04.04.12 a las 16:44pm), Entidad (UnidadMuestra), ID registro entidad (9926004), Acción (Reemplazo), Valor Nuevo (150), Valor Antiguo (155), Tipo de Actualización (Manual).</t>
   </si>
@@ -10234,363 +9987,6 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Eliminar ensayo y luego verificar log</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Entré a la opción </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Reporte Específico Control Diario</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Seleccioné los siguientes datos:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Empresa:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> CPSAA. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Planta:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Cementos Pacasmayo. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Proceso:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Clinkerización. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Equipo:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Horno1. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Fecha:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 2011-08-04. Pulsé sobre el </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>tipo de Ensayo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Cal Libre. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Hora de la Muestra:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 08:00. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Producto:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Clinker Tipo I. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Valor del ensayo:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 2.4. Pulsé en </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Reemplazar,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> luego en la opción</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Eliminar.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Ingresé a la opción </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Administrar Información de Auditoría</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Seleccioné </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Entidad:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> UnidadMuestra. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Acción:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Eliminación. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Fecha inicio:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 04-04-2012.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Fecha fin</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 04-04-2012. Pulso sobre el botón </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Buscar.</t>
     </r>
   </si>
   <si>
@@ -29790,6 +29186,600 @@
   </si>
   <si>
     <t>Por ejemplo: se eliminó una muestra con ID 123, inmediatamente despues se crea una muestra, que adquiere el ID 123. Finalmente, se elimina la muestra con ID 123. Resultado: aparecen 2 registros de eliminación con el mismo ID: 123</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Entré a la opción </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Reporte Específico Control Diario</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Seleccioné los siguientes datos:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Empresa:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CPSAA. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Planta:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Cementos Pacasmayo. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Proceso:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Molienda de Cemento Compósito. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Fecha:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2011-06-04. Pulsé sobre el tipo de Ensayo Fraguado Inicial. Hora de la Muestra: 07:00. Valor del ensayo: 155. Pulsé en </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Reemplazar. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Cambie el valor por: 150.
+Ingresé a la opción </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Administrar Información de Auditoría</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Seleccioné </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Entidad:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> UnidadMuestra. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Acción:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Reemplazo. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Fecha inicio:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> colocar la fecha de reemplazo.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Fecha fin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: colocar la fecha de reemplazo. Pulso sobre el botón </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Buscar.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Entré a la opción </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Reporte Específico Control Diario</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Seleccioné los siguientes datos:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Empresa:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CPSAA. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Planta:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Cementos Pacasmayo. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Proceso:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Clinkerización. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Equipo:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Horno1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Fecha:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2011-08-04. Pulsé sobre el </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>tipo de Ensayo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Cal Libre. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Hora de la Muestra:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 08:00. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Producto:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Clinker Tipo I. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Valor del ensayo:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2.4. Pulsé en </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Reemplazar,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> luego en la opción</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Eliminar.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Ingresé a la opción </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Administrar Información de Auditoría</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Seleccioné </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Entidad:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> UnidadMuestra. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Acción:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Eliminación. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Fecha inicio:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> fecha en que se eliminó.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Fecha fin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: fecha en que se eliminó. Pulso sobre el botón </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Buscar.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -36580,7 +36570,7 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="104" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="B1" s="104"/>
       <c r="C1" s="104"/>
@@ -36600,7 +36590,7 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="105" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="B2" s="106"/>
       <c r="C2" s="106"/>
@@ -36620,10 +36610,10 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="55" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="B3" s="102" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C3" s="102"/>
       <c r="D3" s="102"/>
@@ -36642,10 +36632,10 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="56" t="s">
+        <v>955</v>
+      </c>
+      <c r="B4" s="102" t="s">
         <v>957</v>
-      </c>
-      <c r="B4" s="102" t="s">
-        <v>959</v>
       </c>
       <c r="C4" s="102"/>
       <c r="D4" s="102"/>
@@ -36664,10 +36654,10 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="57" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="B5" s="102" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C5" s="102"/>
       <c r="D5" s="102"/>
@@ -36686,10 +36676,10 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="67" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="B6" s="65" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="C6" s="65"/>
       <c r="D6" s="65"/>
@@ -36708,43 +36698,43 @@
     </row>
     <row r="7" spans="1:16">
       <c r="B7" s="58" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D7" s="58" t="s">
         <v>1098</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="E7" s="58" t="s">
         <v>1099</v>
-      </c>
-      <c r="D7" s="58" t="s">
-        <v>1100</v>
-      </c>
-      <c r="E7" s="58" t="s">
-        <v>1101</v>
       </c>
       <c r="F7" s="68">
         <v>40994</v>
       </c>
       <c r="G7" s="59" t="s">
+        <v>1100</v>
+      </c>
+      <c r="H7" s="59" t="s">
+        <v>1101</v>
+      </c>
+      <c r="I7" s="69" t="s">
         <v>1102</v>
       </c>
-      <c r="H7" s="59" t="s">
+      <c r="J7" s="69" t="s">
         <v>1103</v>
       </c>
-      <c r="I7" s="69" t="s">
+      <c r="K7" s="69" t="s">
         <v>1104</v>
       </c>
-      <c r="J7" s="69" t="s">
+      <c r="L7" s="69" t="s">
         <v>1105</v>
       </c>
-      <c r="K7" s="69" t="s">
+      <c r="M7" s="69" t="s">
         <v>1106</v>
       </c>
-      <c r="L7" s="69" t="s">
+      <c r="N7" s="69" t="s">
         <v>1107</v>
-      </c>
-      <c r="M7" s="69" t="s">
-        <v>1108</v>
-      </c>
-      <c r="N7" s="69" t="s">
-        <v>1109</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -36769,7 +36759,7 @@
     </row>
     <row r="9" spans="1:16" ht="30">
       <c r="A9" s="71" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="B9" s="62">
         <v>3</v>
@@ -36790,7 +36780,7 @@
     </row>
     <row r="10" spans="1:16" ht="30">
       <c r="A10" s="25" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B10" s="72"/>
       <c r="C10" s="62">
@@ -36810,7 +36800,7 @@
     </row>
     <row r="11" spans="1:16" ht="30">
       <c r="A11" s="25" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="62">
@@ -36850,7 +36840,7 @@
     </row>
     <row r="13" spans="1:16" ht="30">
       <c r="A13" s="25" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
@@ -36870,7 +36860,7 @@
     </row>
     <row r="14" spans="1:16" ht="30">
       <c r="A14" s="25" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
@@ -36890,7 +36880,7 @@
     </row>
     <row r="15" spans="1:16" ht="45">
       <c r="A15" s="25" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
@@ -36910,7 +36900,7 @@
     </row>
     <row r="16" spans="1:16" ht="30">
       <c r="A16" s="25" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
@@ -36930,7 +36920,7 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="25" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
@@ -36950,7 +36940,7 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="25" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
@@ -36970,7 +36960,7 @@
     </row>
     <row r="19" spans="1:14" ht="30">
       <c r="A19" s="25" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="73"/>
@@ -36990,7 +36980,7 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="25" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
@@ -37010,7 +37000,7 @@
     </row>
     <row r="21" spans="1:14" ht="45">
       <c r="A21" s="25" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B21" s="30"/>
       <c r="C21" s="30"/>
@@ -37090,7 +37080,7 @@
     </row>
     <row r="25" spans="1:14" ht="30">
       <c r="A25" s="25" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
@@ -37110,7 +37100,7 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="25" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
@@ -37130,7 +37120,7 @@
     </row>
     <row r="27" spans="1:14" ht="60">
       <c r="A27" s="25" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
@@ -37150,7 +37140,7 @@
     </row>
     <row r="28" spans="1:14" ht="45">
       <c r="A28" s="25" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
@@ -37170,7 +37160,7 @@
     </row>
     <row r="29" spans="1:14" ht="45">
       <c r="A29" s="25" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
@@ -37190,7 +37180,7 @@
     </row>
     <row r="30" spans="1:14" ht="30">
       <c r="A30" s="25" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
@@ -37210,7 +37200,7 @@
     </row>
     <row r="31" spans="1:14" ht="45">
       <c r="A31" s="25" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
@@ -37230,7 +37220,7 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="25" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
@@ -37245,12 +37235,12 @@
       <c r="L32" s="21"/>
       <c r="M32" s="21"/>
       <c r="N32" s="62" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="25" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B33" s="63">
         <v>4</v>
@@ -37270,7 +37260,7 @@
     </row>
     <row r="34" spans="1:14" ht="45">
       <c r="A34" s="25" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B34" s="63">
         <v>25</v>
@@ -37290,7 +37280,7 @@
     </row>
     <row r="35" spans="1:14" ht="30">
       <c r="A35" s="25" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B35" s="30"/>
       <c r="C35" s="63">
@@ -37310,7 +37300,7 @@
     </row>
     <row r="36" spans="1:14" ht="30">
       <c r="A36" s="25" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="B36" s="30"/>
       <c r="C36" s="63">
@@ -37330,7 +37320,7 @@
     </row>
     <row r="37" spans="1:14" ht="30">
       <c r="A37" s="25" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
@@ -37349,7 +37339,7 @@
     </row>
     <row r="38" spans="1:14" ht="60">
       <c r="A38" s="25" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
@@ -37434,16 +37424,16 @@
         <v>561</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="E2" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>562</v>
       </c>
       <c r="G2" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="5" customFormat="1" ht="75">
@@ -37460,13 +37450,13 @@
         <v>565</v>
       </c>
       <c r="E3" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>566</v>
       </c>
       <c r="G3" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="5" customFormat="1" ht="45">
@@ -37483,13 +37473,13 @@
         <v>568</v>
       </c>
       <c r="E4" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>569</v>
       </c>
       <c r="G4" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="5" customFormat="1" ht="45">
@@ -37506,13 +37496,13 @@
         <v>571</v>
       </c>
       <c r="E5" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>572</v>
       </c>
       <c r="G5" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="5" customFormat="1" ht="45">
@@ -37529,13 +37519,13 @@
         <v>574</v>
       </c>
       <c r="E6" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>572</v>
       </c>
       <c r="G6" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="5" customFormat="1" ht="90">
@@ -37549,16 +37539,16 @@
         <v>575</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E7" s="78" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>576</v>
       </c>
       <c r="G7" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="5" customFormat="1" ht="75">
@@ -37575,13 +37565,13 @@
         <v>578</v>
       </c>
       <c r="E8" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="G8" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="5" customFormat="1" ht="53.25" customHeight="1">
@@ -37598,13 +37588,13 @@
         <v>580</v>
       </c>
       <c r="E9" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>581</v>
       </c>
       <c r="G9" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="5" customFormat="1" ht="126" customHeight="1">
@@ -37621,13 +37611,13 @@
         <v>583</v>
       </c>
       <c r="E10" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>584</v>
       </c>
       <c r="G10" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="5" customFormat="1" ht="156" customHeight="1">
@@ -37644,16 +37634,16 @@
         <v>586</v>
       </c>
       <c r="E11" s="101" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>587</v>
       </c>
       <c r="G11" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="H11" s="89" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="5" customFormat="1" ht="95.25" customHeight="1">
@@ -37670,13 +37660,13 @@
         <v>589</v>
       </c>
       <c r="E12" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>590</v>
       </c>
       <c r="G12" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="5" customFormat="1" ht="217.5" customHeight="1">
@@ -37693,13 +37683,13 @@
         <v>592</v>
       </c>
       <c r="E13" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="G13" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="5" customFormat="1" ht="111.75" customHeight="1">
@@ -37716,13 +37706,13 @@
         <v>594</v>
       </c>
       <c r="E14" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>595</v>
       </c>
       <c r="G14" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="5" customFormat="1" ht="52.5" customHeight="1">
@@ -37739,13 +37729,13 @@
         <v>597</v>
       </c>
       <c r="E15" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>598</v>
       </c>
       <c r="G15" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="5" customFormat="1" ht="69.75" customHeight="1">
@@ -37762,13 +37752,13 @@
         <v>600</v>
       </c>
       <c r="E16" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>601</v>
       </c>
       <c r="G16" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="5" customFormat="1" ht="95.25" customHeight="1">
@@ -37785,13 +37775,13 @@
         <v>603</v>
       </c>
       <c r="E17" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>604</v>
       </c>
       <c r="G17" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="5" customFormat="1" ht="45">
@@ -37808,13 +37798,13 @@
         <v>606</v>
       </c>
       <c r="E18" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G18" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="106.5" customHeight="1">
@@ -37828,16 +37818,16 @@
         <v>605</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="E19" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="G19" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="45">
@@ -37854,21 +37844,21 @@
         <v>612</v>
       </c>
       <c r="E20" s="101" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="G20" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="H20" s="84" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="195">
       <c r="H21" s="100" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
   </sheetData>
@@ -37938,7 +37928,7 @@
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="G2" s="4"/>
     </row>
@@ -37957,7 +37947,7 @@
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="G3" s="16"/>
     </row>
@@ -37976,7 +37966,7 @@
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="G4" s="16"/>
     </row>
@@ -37995,7 +37985,7 @@
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="G5" s="16"/>
     </row>
@@ -38043,10 +38033,10 @@
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
       <c r="E8" s="94" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F8" s="93" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="G8" s="93"/>
       <c r="H8" s="93"/>
@@ -38126,13 +38116,13 @@
         <v>285</v>
       </c>
       <c r="E2" s="94" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="G2" s="94" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" ht="300">
@@ -38149,13 +38139,13 @@
         <v>286</v>
       </c>
       <c r="E3" s="94" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="G3" s="94" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
   </sheetData>
@@ -38218,16 +38208,16 @@
         <v>613</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E2" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="G2" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" ht="60">
@@ -38241,16 +38231,16 @@
         <v>613</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E3" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="G3" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" ht="75">
@@ -38264,16 +38254,16 @@
         <v>614</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E4" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="G4" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="5" customFormat="1" ht="60">
@@ -38290,13 +38280,13 @@
         <v>615</v>
       </c>
       <c r="E5" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="G5" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="5" customFormat="1" ht="60">
@@ -38313,13 +38303,13 @@
         <v>615</v>
       </c>
       <c r="E6" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>616</v>
       </c>
       <c r="G6" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="5" customFormat="1" ht="90">
@@ -38330,19 +38320,19 @@
         <v>563</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="E7" s="91" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>896</v>
       </c>
-      <c r="E7" s="91" t="s">
-        <v>1111</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>898</v>
-      </c>
       <c r="G7" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="5" customFormat="1" ht="60">
@@ -38359,13 +38349,13 @@
         <v>618</v>
       </c>
       <c r="E8" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>619</v>
       </c>
       <c r="G8" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="60">
@@ -38382,13 +38372,13 @@
         <v>621</v>
       </c>
       <c r="E9" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>622</v>
       </c>
       <c r="G9" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="75">
@@ -38405,13 +38395,13 @@
         <v>621</v>
       </c>
       <c r="E10" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="G10" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="60">
@@ -38428,13 +38418,13 @@
         <v>624</v>
       </c>
       <c r="E11" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>625</v>
       </c>
       <c r="G11" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
   </sheetData>
@@ -38450,8 +38440,8 @@
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView topLeftCell="E14" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -38501,13 +38491,13 @@
         <v>628</v>
       </c>
       <c r="E2" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>629</v>
       </c>
       <c r="G2" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="90">
@@ -38524,13 +38514,13 @@
         <v>631</v>
       </c>
       <c r="E3" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>632</v>
       </c>
       <c r="G3" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="165">
@@ -38547,16 +38537,16 @@
         <v>634</v>
       </c>
       <c r="E4" s="77" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>635</v>
       </c>
       <c r="G4" s="92" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="H4" s="84" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="105">
@@ -38573,13 +38563,13 @@
         <v>637</v>
       </c>
       <c r="E5" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>638</v>
       </c>
       <c r="G5" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="105">
@@ -38596,13 +38586,13 @@
         <v>640</v>
       </c>
       <c r="E6" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>635</v>
       </c>
       <c r="G6" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="165">
@@ -38616,19 +38606,19 @@
         <v>641</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E7" s="77" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>642</v>
       </c>
-      <c r="E7" s="77" t="s">
-        <v>1160</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>643</v>
-      </c>
       <c r="G7" s="92" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="H7" s="84" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="75">
@@ -38639,22 +38629,22 @@
         <v>626</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>644</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="77" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>645</v>
       </c>
-      <c r="E8" s="77" t="s">
-        <v>1161</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>646</v>
-      </c>
       <c r="G8" s="92" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="H8" s="84" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="165">
@@ -38665,22 +38655,22 @@
         <v>626</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E9" s="77" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>647</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>648</v>
-      </c>
-      <c r="E9" s="77" t="s">
-        <v>1162</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>649</v>
-      </c>
       <c r="G9" s="92" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="H9" s="84" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="135">
@@ -38691,19 +38681,19 @@
         <v>626</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="E10" s="91" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>650</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>651</v>
-      </c>
-      <c r="E10" s="91" t="s">
-        <v>1111</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>652</v>
-      </c>
       <c r="G10" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="165">
@@ -38714,19 +38704,19 @@
         <v>626</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E11" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="G11" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="95.25" customHeight="1">
@@ -38737,18 +38727,18 @@
         <v>626</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="E12" s="21"/>
       <c r="F12" s="9"/>
       <c r="G12" s="92" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="H12" s="98" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="95.25" customHeight="1">
@@ -38759,18 +38749,18 @@
         <v>626</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>1163</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>1165</v>
       </c>
       <c r="E13" s="21"/>
       <c r="F13" s="9"/>
       <c r="G13" s="92" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="H13" s="98" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="197.25" customHeight="1">
@@ -38781,18 +38771,18 @@
         <v>626</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="E14" s="21"/>
       <c r="F14" s="9"/>
       <c r="G14" s="92" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="H14" s="98" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
   </sheetData>
@@ -38860,13 +38850,13 @@
         <v>288</v>
       </c>
       <c r="E2" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>289</v>
       </c>
       <c r="G2" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="60">
@@ -38883,13 +38873,13 @@
         <v>291</v>
       </c>
       <c r="E3" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>292</v>
       </c>
       <c r="G3" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="48.75" customHeight="1">
@@ -38906,13 +38896,13 @@
         <v>294</v>
       </c>
       <c r="E4" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>289</v>
       </c>
       <c r="G4" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="60">
@@ -38929,13 +38919,13 @@
         <v>296</v>
       </c>
       <c r="E5" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>246</v>
       </c>
       <c r="G5" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="60">
@@ -38952,13 +38942,13 @@
         <v>298</v>
       </c>
       <c r="E6" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>299</v>
       </c>
       <c r="G6" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="45">
@@ -38975,13 +38965,13 @@
         <v>301</v>
       </c>
       <c r="E7" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>302</v>
       </c>
       <c r="G7" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="225">
@@ -38998,13 +38988,13 @@
         <v>304</v>
       </c>
       <c r="E8" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>305</v>
       </c>
       <c r="G8" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="60">
@@ -39021,13 +39011,13 @@
         <v>307</v>
       </c>
       <c r="E9" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>308</v>
       </c>
       <c r="G9" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
   </sheetData>
@@ -39093,13 +39083,13 @@
         <v>310</v>
       </c>
       <c r="E2" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>311</v>
       </c>
       <c r="G2" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="45">
@@ -39116,13 +39106,13 @@
         <v>313</v>
       </c>
       <c r="E3" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>314</v>
       </c>
       <c r="G3" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="22" customFormat="1" ht="45">
@@ -39139,13 +39129,13 @@
         <v>316</v>
       </c>
       <c r="E4" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>246</v>
       </c>
       <c r="G4" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="60">
@@ -39162,13 +39152,13 @@
         <v>318</v>
       </c>
       <c r="E5" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>319</v>
       </c>
       <c r="G5" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="60">
@@ -39185,13 +39175,13 @@
         <v>321</v>
       </c>
       <c r="E6" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>322</v>
       </c>
       <c r="G6" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="75">
@@ -39208,13 +39198,13 @@
         <v>324</v>
       </c>
       <c r="E7" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>325</v>
       </c>
       <c r="G7" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="22" customFormat="1" ht="135">
@@ -39231,16 +39221,16 @@
         <v>327</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>328</v>
       </c>
       <c r="G8" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="H8" s="84" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="75">
@@ -39257,16 +39247,16 @@
         <v>330</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>331</v>
       </c>
       <c r="G9" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="H9" s="84" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="22" customFormat="1" ht="135">
@@ -39283,16 +39273,16 @@
         <v>333</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>334</v>
       </c>
       <c r="G10" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="H10" s="84" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="105">
@@ -39309,13 +39299,13 @@
         <v>336</v>
       </c>
       <c r="E11" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>246</v>
       </c>
       <c r="G11" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="45">
@@ -39332,13 +39322,13 @@
         <v>338</v>
       </c>
       <c r="E12" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>339</v>
       </c>
       <c r="G12" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="22" customFormat="1" ht="60">
@@ -39355,13 +39345,13 @@
         <v>341</v>
       </c>
       <c r="E13" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>342</v>
       </c>
       <c r="G13" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="45">
@@ -39378,13 +39368,13 @@
         <v>344</v>
       </c>
       <c r="E14" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>345</v>
       </c>
       <c r="G14" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="45">
@@ -39401,13 +39391,13 @@
         <v>347</v>
       </c>
       <c r="E15" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>348</v>
       </c>
       <c r="G15" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="45">
@@ -39424,13 +39414,13 @@
         <v>350</v>
       </c>
       <c r="E16" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>351</v>
       </c>
       <c r="G16" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="45">
@@ -39447,13 +39437,13 @@
         <v>353</v>
       </c>
       <c r="E17" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>354</v>
       </c>
       <c r="G17" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="45">
@@ -39469,10 +39459,10 @@
       <c r="D18" s="10"/>
       <c r="E18" s="9"/>
       <c r="F18" s="4" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="G18" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
   </sheetData>
@@ -39505,7 +39495,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="111" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="B1" s="111"/>
       <c r="C1" s="111"/>
@@ -39516,7 +39506,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="90" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="B2" s="90"/>
       <c r="C2" s="90"/>
@@ -39560,13 +39550,13 @@
         <v>438</v>
       </c>
       <c r="E4" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F4" s="34" t="s">
         <v>439</v>
       </c>
       <c r="G4" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="5" customFormat="1" ht="30">
@@ -39583,13 +39573,13 @@
         <v>440</v>
       </c>
       <c r="E5" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>441</v>
       </c>
       <c r="G5" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="5" customFormat="1" ht="48" customHeight="1">
@@ -39606,13 +39596,13 @@
         <v>442</v>
       </c>
       <c r="E6" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>443</v>
       </c>
       <c r="G6" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="5" customFormat="1" ht="60">
@@ -39629,13 +39619,13 @@
         <v>444</v>
       </c>
       <c r="E7" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>445</v>
       </c>
       <c r="G7" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="45">
@@ -39652,13 +39642,13 @@
         <v>446</v>
       </c>
       <c r="E8" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>447</v>
       </c>
       <c r="G8" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="45">
@@ -39675,13 +39665,13 @@
         <v>448</v>
       </c>
       <c r="E9" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>449</v>
       </c>
       <c r="G9" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="5" customFormat="1" ht="97.5" customHeight="1">
@@ -39698,13 +39688,13 @@
         <v>450</v>
       </c>
       <c r="E10" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>451</v>
       </c>
       <c r="G10" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="60">
@@ -39721,13 +39711,13 @@
         <v>452</v>
       </c>
       <c r="E11" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>453</v>
       </c>
       <c r="G11" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="75">
@@ -39744,13 +39734,13 @@
         <v>454</v>
       </c>
       <c r="E12" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>455</v>
       </c>
       <c r="G12" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="5" customFormat="1" ht="60">
@@ -39767,13 +39757,13 @@
         <v>456</v>
       </c>
       <c r="E13" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>457</v>
       </c>
       <c r="G13" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="5" customFormat="1" ht="135">
@@ -39790,13 +39780,13 @@
         <v>458</v>
       </c>
       <c r="E14" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>459</v>
       </c>
       <c r="G14" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="135">
@@ -39813,13 +39803,13 @@
         <v>460</v>
       </c>
       <c r="E15" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>461</v>
       </c>
       <c r="G15" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="120">
@@ -39836,13 +39826,13 @@
         <v>462</v>
       </c>
       <c r="E16" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>463</v>
       </c>
       <c r="G16" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="120">
@@ -39859,13 +39849,13 @@
         <v>464</v>
       </c>
       <c r="E17" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F17" s="14" t="s">
         <v>463</v>
       </c>
       <c r="G17" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="120">
@@ -39882,13 +39872,13 @@
         <v>465</v>
       </c>
       <c r="E18" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F18" s="14" t="s">
         <v>466</v>
       </c>
       <c r="G18" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="165">
@@ -39905,23 +39895,23 @@
         <v>467</v>
       </c>
       <c r="E19" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>468</v>
       </c>
       <c r="G19" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="F20" s="95" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="F21" s="95" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
     </row>
   </sheetData>
@@ -39989,16 +39979,16 @@
         <v>358</v>
       </c>
       <c r="E2" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="G2" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="H2" s="84" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="45">
@@ -40015,13 +40005,13 @@
         <v>359</v>
       </c>
       <c r="E3" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="G3" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="40.5" customHeight="1">
@@ -40038,13 +40028,13 @@
         <v>360</v>
       </c>
       <c r="E4" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="G4" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="33.75" customHeight="1">
@@ -40061,13 +40051,13 @@
         <v>361</v>
       </c>
       <c r="E5" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="G5" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="90">
@@ -40084,13 +40074,13 @@
         <v>362</v>
       </c>
       <c r="E6" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="G6" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
   </sheetData>
@@ -40156,13 +40146,13 @@
         <v>365</v>
       </c>
       <c r="E2" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="G2" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="105">
@@ -40179,13 +40169,13 @@
         <v>366</v>
       </c>
       <c r="E3" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="G3" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
   </sheetData>
@@ -40244,11 +40234,11 @@
         <v>492</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="G2" s="9"/>
     </row>
@@ -40317,13 +40307,13 @@
         <v>470</v>
       </c>
       <c r="E2" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>441</v>
       </c>
       <c r="G2" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="5" customFormat="1" ht="45">
@@ -40340,13 +40330,13 @@
         <v>471</v>
       </c>
       <c r="E3" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>472</v>
       </c>
       <c r="G3" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="5" customFormat="1" ht="60">
@@ -40363,13 +40353,13 @@
         <v>473</v>
       </c>
       <c r="E4" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>474</v>
       </c>
       <c r="G4" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="60">
@@ -40386,13 +40376,13 @@
         <v>475</v>
       </c>
       <c r="E5" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>476</v>
       </c>
       <c r="G5" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="5" customFormat="1" ht="60">
@@ -40409,13 +40399,13 @@
         <v>477</v>
       </c>
       <c r="E6" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>478</v>
       </c>
       <c r="G6" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="5" customFormat="1" ht="92.25" customHeight="1">
@@ -40432,13 +40422,13 @@
         <v>479</v>
       </c>
       <c r="E7" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>480</v>
       </c>
       <c r="G7" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="60">
@@ -40455,13 +40445,13 @@
         <v>481</v>
       </c>
       <c r="E8" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>482</v>
       </c>
       <c r="G8" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="60">
@@ -40478,13 +40468,13 @@
         <v>483</v>
       </c>
       <c r="E9" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>482</v>
       </c>
       <c r="G9" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="5" customFormat="1" ht="45">
@@ -40501,13 +40491,13 @@
         <v>484</v>
       </c>
       <c r="E10" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>485</v>
       </c>
       <c r="G10" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="105">
@@ -40524,13 +40514,13 @@
         <v>486</v>
       </c>
       <c r="E11" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>487</v>
       </c>
       <c r="G11" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="105">
@@ -40547,13 +40537,13 @@
         <v>488</v>
       </c>
       <c r="E12" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>487</v>
       </c>
       <c r="G12" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="5" customFormat="1" ht="159.75" customHeight="1">
@@ -40586,20 +40576,20 @@
         <v>469</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="H14" s="84" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="240">
       <c r="H15" s="100" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
     </row>
   </sheetData>
@@ -40654,17 +40644,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>655</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>656</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>657</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G2" s="16"/>
     </row>
@@ -40673,17 +40663,17 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G3" s="16"/>
     </row>
@@ -40692,17 +40682,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G4" s="16"/>
     </row>
@@ -40711,17 +40701,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="9" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="G5" s="16"/>
     </row>
@@ -40730,17 +40720,17 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="9" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="G6" s="16"/>
     </row>
@@ -40749,17 +40739,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="G7" s="16"/>
     </row>
@@ -40768,17 +40758,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E8" s="21"/>
       <c r="F8" s="9" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="G8" s="16"/>
     </row>
@@ -40787,16 +40777,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F9" s="42" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G9" s="16"/>
     </row>
@@ -40805,17 +40795,17 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E10" s="24"/>
       <c r="F10" s="4" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G10" s="16"/>
     </row>
@@ -40824,17 +40814,17 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G11" s="16"/>
     </row>
@@ -40848,12 +40838,12 @@
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor rgb="FF29FF19"/>
   </sheetPr>
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -40869,7 +40859,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="111" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B1" s="111"/>
       <c r="C1" s="111"/>
@@ -40880,7 +40870,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="90" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="B2" s="90"/>
       <c r="C2" s="90"/>
@@ -40915,25 +40905,25 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="E4" s="78" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>804</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>805</v>
-      </c>
-      <c r="E4" s="78" t="s">
-        <v>1147</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>806</v>
-      </c>
       <c r="G4" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="H4" s="97" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="225">
@@ -40941,22 +40931,22 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="E5" s="91" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>808</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>809</v>
-      </c>
-      <c r="E5" s="91" t="s">
-        <v>1111</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>810</v>
-      </c>
       <c r="G5" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="195">
@@ -40964,22 +40954,22 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E6" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G6" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="210">
@@ -40987,22 +40977,22 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E7" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="G7" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="195">
@@ -41010,22 +41000,22 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E8" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="G8" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="195">
@@ -41033,22 +41023,22 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="E9" s="91" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>819</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>820</v>
-      </c>
-      <c r="E9" s="91" t="s">
-        <v>1111</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>821</v>
-      </c>
       <c r="G9" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="225">
@@ -41056,25 +41046,25 @@
         <v>7</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C10" s="14" t="s">
+        <v>820</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>822</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>824</v>
-      </c>
       <c r="E10" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="G10" s="96" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="H10" s="98" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="5" customFormat="1" ht="305.25" customHeight="1">
@@ -41082,22 +41072,22 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E11" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="G11" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="324.75" customHeight="1">
@@ -41105,22 +41095,22 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="E12" s="91" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>845</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="E12" s="91" t="s">
-        <v>1111</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>847</v>
-      </c>
       <c r="G12" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="121.5" customHeight="1">
@@ -41128,22 +41118,22 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="E13" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="G13" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="405">
@@ -41151,25 +41141,25 @@
         <v>11</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C14" s="14" t="s">
+        <v>849</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>850</v>
+      </c>
+      <c r="E14" s="91" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F14" s="23" t="s">
         <v>851</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>852</v>
-      </c>
-      <c r="E14" s="91" t="s">
-        <v>1111</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>853</v>
-      </c>
       <c r="G14" s="96" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="H14" s="98" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="135">
@@ -41177,25 +41167,25 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="E15" s="78" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>854</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>855</v>
-      </c>
-      <c r="E15" s="78" t="s">
-        <v>1139</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>856</v>
-      </c>
       <c r="G15" s="78" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="H15" s="98" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="405">
@@ -41203,23 +41193,23 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C16" s="14" t="s">
+        <v>857</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>858</v>
+      </c>
+      <c r="E16" s="78" t="s">
+        <v>1149</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>859</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>860</v>
-      </c>
-      <c r="E16" s="78" t="s">
-        <v>1151</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>861</v>
       </c>
       <c r="G16" s="16"/>
       <c r="H16" s="98" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="120">
@@ -41227,25 +41217,25 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E17" s="78" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="G17" s="80" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="H17" s="99" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="120">
@@ -41253,22 +41243,22 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>867</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="E18" s="91" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>804</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>869</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>862</v>
-      </c>
-      <c r="E18" s="91" t="s">
-        <v>1111</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>806</v>
-      </c>
       <c r="G18" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="225">
@@ -41276,25 +41266,25 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="E19" s="77" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="G19" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="H19" s="99" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="225">
@@ -41302,25 +41292,25 @@
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="E20" s="77" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="G20" s="77" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="H20" s="99" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="240">
@@ -41328,22 +41318,22 @@
         <v>18</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C21" s="14" t="s">
+        <v>870</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>871</v>
+      </c>
+      <c r="E21" s="94" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F21" s="14" t="s">
         <v>872</v>
       </c>
-      <c r="D21" s="14" t="s">
-        <v>873</v>
-      </c>
-      <c r="E21" s="94" t="s">
-        <v>1155</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>874</v>
-      </c>
       <c r="G21" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="90">
@@ -41351,22 +41341,22 @@
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D22" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="E22" s="91" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>875</v>
       </c>
-      <c r="E22" s="91" t="s">
-        <v>1111</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>877</v>
-      </c>
       <c r="G22" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="75">
@@ -41374,22 +41364,22 @@
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C23" s="9" t="s">
+        <v>876</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="E23" s="91" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F23" s="14" t="s">
         <v>878</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>879</v>
-      </c>
-      <c r="E23" s="91" t="s">
-        <v>1111</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>880</v>
-      </c>
       <c r="G23" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="180">
@@ -41397,17 +41387,17 @@
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="E24" s="21"/>
       <c r="F24" s="4" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="G24" s="16"/>
     </row>
@@ -41416,17 +41406,17 @@
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="4" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="G25" s="16"/>
     </row>
@@ -41435,17 +41425,17 @@
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="4" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="G26" s="16"/>
     </row>
@@ -41591,7 +41581,7 @@
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="G6" s="16"/>
     </row>
@@ -41603,14 +41593,14 @@
         <v>367</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="G7" s="16"/>
     </row>
@@ -41622,14 +41612,14 @@
         <v>367</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E8" s="21"/>
       <c r="F8" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="G8" s="16"/>
     </row>
@@ -41724,7 +41714,7 @@
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="G13" s="16"/>
     </row>
@@ -41857,7 +41847,7 @@
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="G20" s="9"/>
     </row>
@@ -41951,11 +41941,11 @@
         <v>388</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="G5" s="16"/>
     </row>
@@ -41970,11 +41960,11 @@
         <v>389</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="G6" s="16"/>
     </row>
@@ -41989,11 +41979,11 @@
         <v>390</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="4" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="G7" s="16"/>
     </row>
@@ -42008,7 +41998,7 @@
         <v>391</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
@@ -42084,11 +42074,11 @@
         <v>392</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="G12" s="16"/>
     </row>
@@ -42162,7 +42152,7 @@
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="G16" s="16"/>
     </row>
@@ -42177,11 +42167,11 @@
         <v>393</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="G17" s="16"/>
     </row>
@@ -42196,11 +42186,11 @@
         <v>395</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="G18" s="16"/>
     </row>
@@ -42238,7 +42228,7 @@
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="G20" s="16"/>
     </row>
@@ -42257,7 +42247,7 @@
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="G21" s="16"/>
     </row>
@@ -42276,7 +42266,7 @@
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="G22" s="16"/>
     </row>
@@ -42291,11 +42281,11 @@
         <v>397</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="4" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="G23" s="16"/>
     </row>
@@ -42310,7 +42300,7 @@
         <v>398</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4" t="s">
@@ -42386,7 +42376,7 @@
         <v>14</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="4" t="s">
@@ -42405,7 +42395,7 @@
         <v>11</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4" t="s">
@@ -42424,7 +42414,7 @@
         <v>12</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="1" t="s">
@@ -42443,7 +42433,7 @@
         <v>17</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4" t="s">
@@ -42513,7 +42503,7 @@
         <v>52</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="4" t="s">
@@ -42532,7 +42522,7 @@
         <v>53</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="4" t="s">
@@ -42551,7 +42541,7 @@
         <v>54</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="4" t="s">
@@ -42570,7 +42560,7 @@
         <v>91</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
@@ -42589,7 +42579,7 @@
         <v>50</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>55</v>
@@ -42607,11 +42597,11 @@
         <v>95</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="G7" s="16"/>
     </row>
@@ -42645,7 +42635,7 @@
         <v>96</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
@@ -42658,17 +42648,17 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>911</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>912</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>913</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="G10" s="16"/>
     </row>
@@ -42677,17 +42667,17 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G11" s="16"/>
     </row>
@@ -42702,7 +42692,7 @@
         <v>98</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4" t="s">
@@ -42740,7 +42730,7 @@
         <v>67</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
@@ -42763,7 +42753,7 @@
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="G15" s="16"/>
     </row>
@@ -42797,7 +42787,7 @@
         <v>101</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="E17" s="14"/>
       <c r="F17" s="14" t="s">
@@ -42813,10 +42803,10 @@
         <v>49</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="4" t="s">
@@ -42833,7 +42823,7 @@
         <v>102</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="14" t="s">
@@ -42871,7 +42861,7 @@
         <v>70</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="4" t="s">
@@ -42890,7 +42880,7 @@
         <v>61</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="E22" s="14"/>
       <c r="F22" s="14" t="s">
@@ -43023,7 +43013,7 @@
         <v>82</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="4" t="s">
@@ -43162,22 +43152,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>987</v>
+      </c>
+      <c r="E2" s="91" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>988</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>1003</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>989</v>
-      </c>
-      <c r="E2" s="91" t="s">
-        <v>1111</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>990</v>
-      </c>
       <c r="G2" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" ht="75">
@@ -43185,22 +43175,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="E3" s="91" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>988</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>1004</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>991</v>
-      </c>
-      <c r="E3" s="91" t="s">
-        <v>1111</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>990</v>
-      </c>
       <c r="G3" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="60">
@@ -43208,22 +43198,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="E4" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="G4" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="60">
@@ -43231,22 +43221,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="E5" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="G5" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="75">
@@ -43254,22 +43244,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>993</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>994</v>
+      </c>
+      <c r="E6" s="91" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>988</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>995</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="E6" s="91" t="s">
-        <v>1111</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>990</v>
-      </c>
       <c r="G6" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="75">
@@ -43277,22 +43267,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>995</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="E7" s="91" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>988</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>997</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>998</v>
-      </c>
-      <c r="E7" s="91" t="s">
-        <v>1111</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>990</v>
-      </c>
       <c r="G7" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="75">
@@ -43300,22 +43290,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="E8" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="G8" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="75">
@@ -43323,22 +43313,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="E9" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="G9" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
   </sheetData>
@@ -43397,22 +43387,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>1007</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="91" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>1008</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>1009</v>
-      </c>
-      <c r="E2" s="91" t="s">
-        <v>1111</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>1010</v>
-      </c>
       <c r="G2" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="H2" s="6"/>
     </row>
@@ -43421,25 +43411,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E3" s="78" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="G3" s="77" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="H3" s="89" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="135">
@@ -43447,25 +43437,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E4" s="78" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>1013</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>1014</v>
-      </c>
-      <c r="E4" s="78" t="s">
-        <v>1157</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>1015</v>
-      </c>
       <c r="G4" s="77" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="H4" s="89" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="120">
@@ -43473,22 +43463,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E5" s="91" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>1016</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>1017</v>
-      </c>
-      <c r="E5" s="91" t="s">
-        <v>1111</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>1018</v>
-      </c>
       <c r="G5" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="135">
@@ -43496,22 +43486,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E6" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="G6" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="165">
@@ -43519,22 +43509,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E7" s="91" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>1021</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E7" s="91" t="s">
-        <v>1111</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>1023</v>
-      </c>
       <c r="G7" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
   </sheetData>
@@ -43569,7 +43559,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="113" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="B1" s="113"/>
       <c r="C1" s="113"/>
@@ -43604,20 +43594,20 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>1025</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>1026</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>1027</v>
       </c>
       <c r="E3" s="24"/>
       <c r="F3" s="4" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="G3" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="105">
@@ -43625,20 +43615,20 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G4" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="105">
@@ -43646,20 +43636,20 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="4" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="G5" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="105">
@@ -43667,20 +43657,20 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="E6" s="21"/>
       <c r="F6" s="4" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="G6" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="105">
@@ -43688,20 +43678,20 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="E7" s="21"/>
       <c r="F7" s="4" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="G7" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="135">
@@ -43709,20 +43699,20 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="E8" s="21"/>
       <c r="F8" s="4" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G8" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
   </sheetData>
@@ -43759,7 +43749,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="113" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="B1" s="113"/>
       <c r="C1" s="113"/>
@@ -43794,20 +43784,20 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="G3" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="75">
@@ -43815,20 +43805,20 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G4" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="90">
@@ -43836,20 +43826,20 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="4" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G5" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
   </sheetData>
@@ -43887,7 +43877,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="109" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B1" s="109"/>
       <c r="C1" s="109"/>
@@ -43898,7 +43888,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="108" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B2" s="108"/>
       <c r="C2" s="108"/>
@@ -43936,19 +43926,19 @@
         <v>131</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E4" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="G4" s="75" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="5" customFormat="1" ht="48" customHeight="1">
@@ -43959,19 +43949,19 @@
         <v>131</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>494</v>
       </c>
       <c r="E5" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="G5" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="60">
@@ -43982,19 +43972,19 @@
         <v>131</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>495</v>
       </c>
       <c r="E6" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="G6" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="6" customFormat="1" ht="159.75" customHeight="1">
@@ -44005,19 +43995,19 @@
         <v>131</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>685</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>687</v>
-      </c>
       <c r="E7" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="G7" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="6" customFormat="1" ht="48" customHeight="1">
@@ -44028,19 +44018,19 @@
         <v>131</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E8" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="G8" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="137.25" customHeight="1">
@@ -44051,19 +44041,19 @@
         <v>131</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="E9" s="74" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>691</v>
       </c>
-      <c r="E9" s="74" t="s">
-        <v>1111</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>693</v>
-      </c>
       <c r="G9" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="78.75" customHeight="1">
@@ -44074,19 +44064,19 @@
         <v>131</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>496</v>
       </c>
       <c r="E10" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="G10" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="5" customFormat="1" ht="125.25" customHeight="1">
@@ -44097,19 +44087,19 @@
         <v>131</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>696</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>698</v>
-      </c>
       <c r="E11" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G11" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="34.5" customHeight="1">
@@ -44120,19 +44110,19 @@
         <v>131</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E12" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G12" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="45">
@@ -44143,19 +44133,19 @@
         <v>131</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>701</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>703</v>
-      </c>
       <c r="E13" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="G13" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="90">
@@ -44166,19 +44156,19 @@
         <v>497</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="E14" s="74" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>705</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>706</v>
-      </c>
-      <c r="E14" s="74" t="s">
-        <v>1111</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>707</v>
-      </c>
       <c r="G14" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="66" customHeight="1">
@@ -44189,7 +44179,7 @@
         <v>497</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>498</v>
@@ -44198,13 +44188,13 @@
         <v>183</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G15" s="77" t="s">
         <v>184</v>
       </c>
       <c r="H15" s="84" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="210">
@@ -44215,19 +44205,19 @@
         <v>497</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E16" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="G16" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="99" customHeight="1">
@@ -44238,19 +44228,19 @@
         <v>499</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E17" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G17" s="75" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="200.25" customHeight="1">
@@ -44261,22 +44251,22 @@
         <v>499</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="E18" s="76" t="s">
         <v>183</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="G18" s="77" t="s">
         <v>184</v>
       </c>
       <c r="H18" s="84" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="107.25" customHeight="1">
@@ -44287,19 +44277,19 @@
         <v>499</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E19" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="G19" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="96" customHeight="1">
@@ -44310,22 +44300,22 @@
         <v>499</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E20" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="G20" s="77" t="s">
         <v>184</v>
       </c>
       <c r="H20" s="84" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="136.5" hidden="1" customHeight="1">
@@ -44353,22 +44343,22 @@
         <v>501</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="E22" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="G22" s="77" t="s">
         <v>184</v>
       </c>
       <c r="H22" s="84" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="207.75" customHeight="1">
@@ -44379,25 +44369,25 @@
         <v>501</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D23" s="42" t="s">
         <v>502</v>
       </c>
       <c r="E23" s="74" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="G23" s="74" t="s">
+        <v>1109</v>
+      </c>
+      <c r="H23" s="84" t="s">
+        <v>1114</v>
+      </c>
+      <c r="I23" s="84" t="s">
         <v>1111</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>728</v>
-      </c>
-      <c r="G23" s="74" t="s">
-        <v>1111</v>
-      </c>
-      <c r="H23" s="84" t="s">
-        <v>1116</v>
-      </c>
-      <c r="I23" s="84" t="s">
-        <v>1113</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="75">
@@ -44408,22 +44398,22 @@
         <v>501</v>
       </c>
       <c r="C24" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="E24" s="74" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>729</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>730</v>
-      </c>
-      <c r="E24" s="74" t="s">
-        <v>1111</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>731</v>
       </c>
       <c r="G24" s="77" t="s">
         <v>184</v>
       </c>
       <c r="H24" s="84" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="105">
@@ -44434,22 +44424,22 @@
         <v>501</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D25" s="42" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E25" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="G25" s="77" t="s">
         <v>184</v>
       </c>
       <c r="H25" s="84" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="90">
@@ -44460,19 +44450,19 @@
         <v>356</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="E26" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="G26" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="45">
@@ -44483,19 +44473,19 @@
         <v>356</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E27" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="G27" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="135">
@@ -44506,17 +44496,17 @@
         <v>356</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E28" s="79"/>
       <c r="F28" s="4" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="G28" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="270">
@@ -44527,23 +44517,23 @@
         <v>356</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E29" s="79"/>
       <c r="F29" s="4" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="G29" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="H29" s="84" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="I29" s="85" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
     </row>
   </sheetData>
@@ -44581,7 +44571,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="113" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="B1" s="113"/>
       <c r="C1" s="113"/>
@@ -44592,7 +44582,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="64" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="64"/>
@@ -44627,20 +44617,20 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="E4" s="24"/>
       <c r="F4" s="4" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="G4" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="5" customFormat="1" ht="60">
@@ -44648,20 +44638,20 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="G5" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="5" customFormat="1" ht="60">
@@ -44669,20 +44659,20 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="4" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="G6" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="75">
@@ -44690,20 +44680,20 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="4" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G7" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="60">
@@ -44711,20 +44701,20 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="4" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="G8" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="75">
@@ -44732,20 +44722,20 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="4" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G9" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="75">
@@ -44753,20 +44743,20 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="4" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="G10" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="75">
@@ -44774,22 +44764,22 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>1062</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>1063</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>1064</v>
-      </c>
       <c r="F11" s="9" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G11" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
   </sheetData>
@@ -44826,7 +44816,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="113" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="B1" s="113"/>
       <c r="C1" s="113"/>
@@ -44861,20 +44851,20 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="4" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G3" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="45">
@@ -44882,20 +44872,20 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>171</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="4" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G4" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
   </sheetData>
@@ -44911,12 +44901,12 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr enableFormatConditionsCalculation="0">
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor rgb="FF29FF19"/>
   </sheetPr>
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -44933,7 +44923,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="110" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B1" s="110"/>
       <c r="C1" s="110"/>
@@ -44944,7 +44934,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="110" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="B2" s="110"/>
       <c r="C2" s="110"/>
@@ -44955,7 +44945,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="111" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B3" s="111"/>
       <c r="C3" s="111"/>
@@ -44966,7 +44956,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="111" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="B4" s="111"/>
       <c r="C4" s="111"/>
@@ -44977,7 +44967,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="53" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -45018,16 +45008,16 @@
         <v>504</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="E7" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G7" s="75" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="45">
@@ -45039,19 +45029,19 @@
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="46" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E8" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="G8" s="77" t="s">
         <v>2</v>
       </c>
       <c r="H8" s="83" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="28" customFormat="1" ht="60">
@@ -45066,13 +45056,13 @@
         <v>505</v>
       </c>
       <c r="E9" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="G9" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="28" customFormat="1" ht="45">
@@ -45084,16 +45074,16 @@
       </c>
       <c r="C10" s="45"/>
       <c r="D10" s="46" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="E10" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>506</v>
       </c>
       <c r="G10" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="47" customFormat="1" ht="75">
@@ -45110,13 +45100,13 @@
         <v>507</v>
       </c>
       <c r="E11" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="G11" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="99" customHeight="1">
@@ -45133,13 +45123,13 @@
         <v>508</v>
       </c>
       <c r="E12" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="G12" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="40.5" customHeight="1">
@@ -45154,13 +45144,13 @@
         <v>509</v>
       </c>
       <c r="E13" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>510</v>
       </c>
       <c r="G13" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="80.25" customHeight="1">
@@ -45175,13 +45165,13 @@
         <v>511</v>
       </c>
       <c r="E14" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="G14" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30">
@@ -45196,13 +45186,13 @@
         <v>512</v>
       </c>
       <c r="E15" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>513</v>
       </c>
       <c r="G15" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="82.5" customHeight="1">
@@ -45217,13 +45207,13 @@
         <v>514</v>
       </c>
       <c r="E16" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="G16" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="90.75" customHeight="1">
@@ -45235,19 +45225,19 @@
       </c>
       <c r="C17" s="44"/>
       <c r="D17" s="46" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="E17" s="78" t="s">
         <v>4</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="G17" s="77" t="s">
         <v>3</v>
       </c>
       <c r="H17" s="83" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="28" customFormat="1" ht="69" customHeight="1">
@@ -45271,7 +45261,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="83" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="28" customFormat="1" ht="79.5" customHeight="1">
@@ -45286,13 +45276,13 @@
         <v>517</v>
       </c>
       <c r="E19" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="G19" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="28" customFormat="1" ht="79.5" customHeight="1">
@@ -45312,7 +45302,7 @@
         <v>5</v>
       </c>
       <c r="H20" s="83" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="150">
@@ -45330,7 +45320,7 @@
       </c>
       <c r="E21" s="44"/>
       <c r="F21" s="9" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="G21" s="16"/>
     </row>
@@ -45347,7 +45337,7 @@
       </c>
       <c r="E22" s="44"/>
       <c r="F22" s="16" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="G22" s="16"/>
     </row>
@@ -45398,7 +45388,7 @@
       </c>
       <c r="E25" s="44"/>
       <c r="F25" s="9" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="G25" s="16"/>
     </row>
@@ -45415,7 +45405,7 @@
       </c>
       <c r="E26" s="44"/>
       <c r="F26" s="9" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="G26" s="16"/>
     </row>
@@ -45432,7 +45422,7 @@
       </c>
       <c r="E27" s="44"/>
       <c r="F27" s="9" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="G27" s="16"/>
     </row>
@@ -45449,7 +45439,7 @@
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="9" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="G28" s="16"/>
     </row>
@@ -45466,7 +45456,7 @@
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="9" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="G29" s="16"/>
     </row>
@@ -45485,7 +45475,7 @@
       </c>
       <c r="E30" s="16"/>
       <c r="F30" s="9" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="G30" s="16"/>
     </row>
@@ -45502,7 +45492,7 @@
       </c>
       <c r="E31" s="44"/>
       <c r="F31" s="9" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="G31" s="16"/>
     </row>
@@ -45519,7 +45509,7 @@
       </c>
       <c r="E32" s="44"/>
       <c r="F32" s="9" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="G32" s="16"/>
     </row>
@@ -45536,7 +45526,7 @@
       </c>
       <c r="E33" s="44"/>
       <c r="F33" s="9" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="G33" s="16"/>
     </row>
@@ -45553,7 +45543,7 @@
       </c>
       <c r="E34" s="44"/>
       <c r="F34" s="9" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="G34" s="16"/>
     </row>
@@ -45570,7 +45560,7 @@
       </c>
       <c r="E35" s="44"/>
       <c r="F35" s="9" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="G35" s="16"/>
     </row>
@@ -45589,7 +45579,7 @@
       </c>
       <c r="E36" s="49"/>
       <c r="F36" s="9" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="G36" s="16"/>
     </row>
@@ -45608,7 +45598,7 @@
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="9" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="G37" s="16"/>
     </row>
@@ -45625,7 +45615,7 @@
       </c>
       <c r="E38" s="49"/>
       <c r="F38" s="9" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="G38" s="16"/>
     </row>
@@ -45644,7 +45634,7 @@
       </c>
       <c r="E39" s="16"/>
       <c r="F39" s="9" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="G39" s="16"/>
     </row>
@@ -45663,7 +45653,7 @@
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="33" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="G40" s="16"/>
     </row>
@@ -45682,7 +45672,7 @@
       </c>
       <c r="E41" s="44"/>
       <c r="F41" s="9" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="G41" s="16"/>
     </row>
@@ -45701,7 +45691,7 @@
       </c>
       <c r="E42" s="44"/>
       <c r="F42" s="33" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="G42" s="16"/>
     </row>
@@ -45720,7 +45710,7 @@
       </c>
       <c r="E43" s="44"/>
       <c r="F43" s="33" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="G43" s="16"/>
     </row>
@@ -45739,7 +45729,7 @@
       </c>
       <c r="E44" s="44"/>
       <c r="F44" s="9" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="G44" s="16"/>
     </row>
@@ -45758,7 +45748,7 @@
       </c>
       <c r="E45" s="44"/>
       <c r="F45" s="9" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G45" s="16"/>
     </row>
@@ -45777,7 +45767,7 @@
       </c>
       <c r="E46" s="44"/>
       <c r="F46" s="9" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="G46" s="16"/>
     </row>
@@ -45796,7 +45786,7 @@
       </c>
       <c r="E47" s="27"/>
       <c r="F47" s="9" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G47" s="16"/>
     </row>
@@ -45873,7 +45863,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="112" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B1" s="112"/>
       <c r="C1" s="112"/>
@@ -45884,7 +45874,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="53" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B2" s="53"/>
       <c r="C2" s="53"/>
@@ -45925,11 +45915,11 @@
         <v>120</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="G4" s="16"/>
     </row>
@@ -45944,11 +45934,11 @@
         <v>120</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="G5" s="16"/>
     </row>
@@ -45963,11 +45953,11 @@
         <v>120</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="G6" s="16"/>
     </row>
@@ -45986,7 +45976,7 @@
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="G7" s="16"/>
     </row>
@@ -46005,7 +45995,7 @@
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="G8" s="16"/>
     </row>
@@ -46024,7 +46014,7 @@
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="G9" s="16"/>
     </row>
@@ -46039,11 +46029,11 @@
         <v>126</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="G10" s="16"/>
     </row>
@@ -46058,11 +46048,11 @@
         <v>127</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="G11" s="16"/>
     </row>
@@ -46081,7 +46071,7 @@
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="G12" s="16"/>
     </row>
@@ -46090,17 +46080,17 @@
         <v>10</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>120</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G13" s="16"/>
     </row>
@@ -46119,7 +46109,7 @@
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="G14" s="16"/>
     </row>
@@ -46138,7 +46128,7 @@
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="G15" s="16"/>
     </row>
@@ -46157,7 +46147,7 @@
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="G16" s="16"/>
     </row>
@@ -46176,7 +46166,7 @@
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="G17" s="16"/>
     </row>
@@ -46195,7 +46185,7 @@
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="G18" s="16"/>
     </row>
@@ -46214,7 +46204,7 @@
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="G19" s="16"/>
     </row>
@@ -46233,7 +46223,7 @@
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="G20" s="16"/>
     </row>
@@ -46252,7 +46242,7 @@
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="G21" s="16"/>
     </row>
@@ -46271,7 +46261,7 @@
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="1" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="G22" s="16"/>
     </row>
@@ -46290,7 +46280,7 @@
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="G23" s="16"/>
     </row>
@@ -46324,7 +46314,7 @@
         <v>147</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4" t="s">
@@ -46362,7 +46352,7 @@
         <v>152</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4" t="s">
@@ -46390,7 +46380,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -46407,7 +46397,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="111" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B1" s="111"/>
       <c r="C1" s="111"/>
@@ -46451,13 +46441,13 @@
         <v>156</v>
       </c>
       <c r="E3" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="G3" s="75" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="60">
@@ -46472,13 +46462,13 @@
         <v>157</v>
       </c>
       <c r="E4" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="G4" s="75" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="45">
@@ -46493,13 +46483,13 @@
         <v>158</v>
       </c>
       <c r="E5" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="G5" s="75" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30">
@@ -46514,13 +46504,13 @@
         <v>159</v>
       </c>
       <c r="E6" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G6" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="45">
@@ -46535,13 +46525,13 @@
         <v>161</v>
       </c>
       <c r="E7" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>162</v>
       </c>
       <c r="G7" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="135">
@@ -46556,13 +46546,13 @@
         <v>163</v>
       </c>
       <c r="E8" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="G8" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="90">
@@ -46577,13 +46567,13 @@
         <v>164</v>
       </c>
       <c r="E9" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="G9" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="105">
@@ -46600,13 +46590,13 @@
         <v>165</v>
       </c>
       <c r="E10" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="G10" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="135">
@@ -46623,13 +46613,13 @@
         <v>166</v>
       </c>
       <c r="E11" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="G11" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="139.5" customHeight="1">
@@ -46646,13 +46636,13 @@
         <v>167</v>
       </c>
       <c r="E12" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="G12" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="45">
@@ -46667,13 +46657,13 @@
         <v>168</v>
       </c>
       <c r="E13" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="G13" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="180">
@@ -46691,7 +46681,7 @@
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="4" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="G14" s="16"/>
     </row>
@@ -46708,7 +46698,7 @@
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="4" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G15" s="16"/>
     </row>
@@ -46724,12 +46714,12 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor rgb="FF29FF19"/>
   </sheetPr>
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -46746,7 +46736,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="113" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="B1" s="113"/>
       <c r="C1" s="113"/>
@@ -46790,13 +46780,13 @@
         <v>172</v>
       </c>
       <c r="E3" s="75" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="G3" s="75" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" ht="141.75" customHeight="1">
@@ -46814,7 +46804,7 @@
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="G4" s="16"/>
     </row>
@@ -46833,7 +46823,7 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="4" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="G5" s="16"/>
     </row>
@@ -46852,7 +46842,7 @@
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="G6" s="16"/>
     </row>
@@ -46871,7 +46861,7 @@
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="G7" s="16"/>
     </row>
@@ -46890,7 +46880,7 @@
       </c>
       <c r="E8" s="21"/>
       <c r="F8" s="4" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G8" s="16"/>
     </row>
@@ -46909,7 +46899,7 @@
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G9" s="16"/>
     </row>
@@ -47042,7 +47032,7 @@
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="G16" s="16"/>
     </row>
@@ -47061,7 +47051,7 @@
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="4" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="G17" s="16"/>
     </row>
@@ -47114,11 +47104,11 @@
         <v>203</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="G20" s="16"/>
     </row>
@@ -47137,7 +47127,7 @@
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="G21" s="16"/>
     </row>
@@ -47174,13 +47164,13 @@
         <v>209</v>
       </c>
       <c r="E23" s="75" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>210</v>
       </c>
       <c r="G23" s="75" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="5" customFormat="1" ht="105">
@@ -47197,16 +47187,16 @@
         <v>212</v>
       </c>
       <c r="E24" s="76" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>213</v>
       </c>
       <c r="G24" s="78" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="H24" s="89" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="180">
@@ -47223,13 +47213,13 @@
         <v>215</v>
       </c>
       <c r="E25" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>216</v>
       </c>
       <c r="G25" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="135">
@@ -47246,13 +47236,13 @@
         <v>218</v>
       </c>
       <c r="E26" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>219</v>
       </c>
       <c r="G26" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="135">
@@ -47269,13 +47259,13 @@
         <v>220</v>
       </c>
       <c r="E27" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="G27" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="135">
@@ -47292,13 +47282,13 @@
         <v>221</v>
       </c>
       <c r="E28" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G28" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="182.25" customHeight="1">
@@ -47312,22 +47302,22 @@
         <v>217</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="E29" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>222</v>
       </c>
       <c r="G29" s="78" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="H29" s="83" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="I29" s="89" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="165">
@@ -47344,13 +47334,13 @@
         <v>223</v>
       </c>
       <c r="E30" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>224</v>
       </c>
       <c r="G30" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="165">
@@ -47364,20 +47354,20 @@
         <v>217</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="E31" s="78" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>225</v>
       </c>
       <c r="G31" s="78"/>
       <c r="H31" s="83" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="I31" s="89" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="195">
@@ -47391,20 +47381,20 @@
         <v>217</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="E32" s="78" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>226</v>
       </c>
       <c r="G32" s="80"/>
       <c r="H32" s="83" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="I32" s="89" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="195">
@@ -47418,20 +47408,20 @@
         <v>217</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="E33" s="78" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>226</v>
       </c>
       <c r="G33" s="80"/>
       <c r="H33" s="83" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="I33" s="89" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="195">
@@ -47467,13 +47457,13 @@
         <v>229</v>
       </c>
       <c r="E35" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>230</v>
       </c>
       <c r="G35" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="195">
@@ -47487,20 +47477,20 @@
         <v>217</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="E36" s="78" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="G36" s="80"/>
       <c r="H36" s="83" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="I36" s="89" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="240">
@@ -47514,20 +47504,20 @@
         <v>217</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="E37" s="78" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="G37" s="80"/>
       <c r="H37" s="83" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="I37" s="89" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="195">
@@ -47544,13 +47534,13 @@
         <v>231</v>
       </c>
       <c r="E38" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>232</v>
       </c>
       <c r="G38" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="195">
@@ -47567,13 +47557,13 @@
         <v>233</v>
       </c>
       <c r="E39" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>234</v>
       </c>
       <c r="G39" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="120">
@@ -47587,16 +47577,16 @@
         <v>235</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="E40" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="G40" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="108" customHeight="1">
@@ -47610,20 +47600,20 @@
         <v>235</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="E41" s="78" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="77" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="H41" s="83" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="I41" s="89" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
   </sheetData>
@@ -47691,19 +47681,19 @@
         <v>237</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="G2" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="H2" s="83" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="5" customFormat="1" ht="60" hidden="1">
@@ -47723,7 +47713,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="G3" s="78" t="s">
         <v>10</v>
@@ -47743,13 +47733,13 @@
         <v>239</v>
       </c>
       <c r="E4" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="G4" s="74" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
   </sheetData>
@@ -47817,13 +47807,13 @@
         <v>242</v>
       </c>
       <c r="E2" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>243</v>
       </c>
       <c r="G2" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="5" customFormat="1" ht="45">
@@ -47840,13 +47830,13 @@
         <v>245</v>
       </c>
       <c r="E3" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>246</v>
       </c>
       <c r="G3" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="5" customFormat="1" ht="105">
@@ -47863,13 +47853,13 @@
         <v>248</v>
       </c>
       <c r="E4" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>249</v>
       </c>
       <c r="G4" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="5" customFormat="1" ht="105">
@@ -47886,13 +47876,13 @@
         <v>251</v>
       </c>
       <c r="E5" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>249</v>
       </c>
       <c r="G5" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="5" customFormat="1" ht="105">
@@ -47909,13 +47899,13 @@
         <v>253</v>
       </c>
       <c r="E6" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>249</v>
       </c>
       <c r="G6" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="5" customFormat="1" ht="105">
@@ -47932,13 +47922,13 @@
         <v>255</v>
       </c>
       <c r="E7" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>249</v>
       </c>
       <c r="G7" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="5" customFormat="1" ht="105">
@@ -47955,13 +47945,13 @@
         <v>257</v>
       </c>
       <c r="E8" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>249</v>
       </c>
       <c r="G8" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="5" customFormat="1" ht="75">
@@ -47978,16 +47968,16 @@
         <v>259</v>
       </c>
       <c r="E9" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>260</v>
       </c>
       <c r="G9" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="H9" s="83" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="5" customFormat="1" ht="82.5" customHeight="1">
@@ -48004,13 +47994,13 @@
         <v>262</v>
       </c>
       <c r="E10" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>249</v>
       </c>
       <c r="G10" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="5" customFormat="1" ht="82.5" customHeight="1">
@@ -48027,13 +48017,13 @@
         <v>264</v>
       </c>
       <c r="E11" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>249</v>
       </c>
       <c r="G11" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="5" customFormat="1" ht="60">
@@ -48050,13 +48040,13 @@
         <v>266</v>
       </c>
       <c r="E12" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>267</v>
       </c>
       <c r="G12" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="5" customFormat="1" ht="105">
@@ -48073,16 +48063,16 @@
         <v>269</v>
       </c>
       <c r="E13" s="101" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>270</v>
       </c>
       <c r="G13" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="H13" s="89" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="5" customFormat="1" ht="60">
@@ -48099,13 +48089,13 @@
         <v>272</v>
       </c>
       <c r="E14" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>273</v>
       </c>
       <c r="G14" s="91" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
   </sheetData>

--- a/FASE 2/PRUEBAS/Resultado de pruebas/Casos de Prueba - Resumen.xlsx
+++ b/FASE 2/PRUEBAS/Resultado de pruebas/Casos de Prueba - Resumen.xlsx
@@ -38440,8 +38440,8 @@
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>

--- a/FASE 2/PRUEBAS/Resultado de pruebas/Casos de Prueba - Resumen.xlsx
+++ b/FASE 2/PRUEBAS/Resultado de pruebas/Casos de Prueba - Resumen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815" tabRatio="797" firstSheet="11" activeTab="13"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815" tabRatio="797"/>
   </bookViews>
   <sheets>
     <sheet name="Inicio" sheetId="25" r:id="rId1"/>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2397" uniqueCount="1169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2397" uniqueCount="1167">
   <si>
     <t>Se colocó 0 a los tres valores</t>
   </si>
@@ -29180,12 +29180,6 @@
   </si>
   <si>
     <t>Se observa que se repite el ID de registro de Entidad, cual es el motivo si son muestras diferentes?</t>
-  </si>
-  <si>
-    <t>Control de cambios - Resuelto en generación código  de muestra</t>
-  </si>
-  <si>
-    <t>Por ejemplo: se eliminó una muestra con ID 123, inmediatamente despues se crea una muestra, que adquiere el ID 123. Finalmente, se elimina la muestra con ID 123. Resultado: aparecen 2 registros de eliminación con el mismo ID: 123</t>
   </si>
   <si>
     <r>
@@ -36546,8 +36540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -38440,8 +38434,8 @@
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -38606,7 +38600,7 @@
         <v>641</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E7" s="77" t="s">
         <v>1158</v>
@@ -38658,7 +38652,7 @@
         <v>646</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="E9" s="77" t="s">
         <v>1160</v>
@@ -38737,8 +38731,8 @@
       <c r="G12" s="92" t="s">
         <v>1137</v>
       </c>
-      <c r="H12" s="98" t="s">
-        <v>1165</v>
+      <c r="H12" s="84" t="s">
+        <v>1114</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="95.25" customHeight="1">
@@ -38759,8 +38753,8 @@
       <c r="G13" s="92" t="s">
         <v>1137</v>
       </c>
-      <c r="H13" s="98" t="s">
-        <v>1110</v>
+      <c r="H13" s="84" t="s">
+        <v>1114</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="197.25" customHeight="1">
@@ -38781,8 +38775,8 @@
       <c r="G14" s="92" t="s">
         <v>1137</v>
       </c>
-      <c r="H14" s="98" t="s">
-        <v>1166</v>
+      <c r="H14" s="84" t="s">
+        <v>1114</v>
       </c>
     </row>
   </sheetData>
